--- a/relatorio-automatico/bckp_xlsx/Relatorio_TR_USER4.xlsx
+++ b/relatorio-automatico/bckp_xlsx/Relatorio_TR_USER4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryron\OneDrive\Documentos\Projetos\RelatorioSANEPAR\RelatorioSANEPAR-automatico\bckp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryron\OneDrive\Documentos\Projetos\SEST SENAT\relatorio-automatico\bckp_xlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54844EAE-495C-42F3-B383-972056276419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59443169-6B6D-48A6-92CD-F8BFBBB35DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Consultas" sheetId="1" r:id="rId1"/>
@@ -2876,16 +2876,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DECBE1-0AF4-3B32-5E1A-B8112ED227B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F817C2-12BF-1EAA-C23F-5E435B9F5C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2909,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="167640"/>
-          <a:ext cx="1249680" cy="883920"/>
+          <a:ext cx="1562100" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
